--- a/data/5256.xlsx
+++ b/data/5256.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42979,6 +42979,41 @@
         <v>1539300</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5256</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>REACH</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>2103400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5256.xlsx
+++ b/data/5256.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43014,6 +43014,41 @@
         <v>2103400</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5256</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>REACH</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>1186000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5256.xlsx
+++ b/data/5256.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43049,6 +43049,41 @@
         <v>1186000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5256</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>REACH</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>2309700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5256.xlsx
+++ b/data/5256.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43084,6 +43084,41 @@
         <v>2309700</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5256</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>REACH</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>7838500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5256.xlsx
+++ b/data/5256.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43119,6 +43119,41 @@
         <v>7838500</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5256</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>REACH</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>3432700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5256.xlsx
+++ b/data/5256.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43154,6 +43154,41 @@
         <v>3432700</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5256</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>REACH</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>3521800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5256.xlsx
+++ b/data/5256.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43189,6 +43189,41 @@
         <v>3521800</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5256</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>REACH</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>2821000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5256.xlsx
+++ b/data/5256.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43224,6 +43224,41 @@
         <v>2821000</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5256</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>REACH</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>840100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5256.xlsx
+++ b/data/5256.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43259,6 +43259,41 @@
         <v>840100</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5256</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>REACH</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>3678700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5256.xlsx
+++ b/data/5256.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43294,6 +43294,41 @@
         <v>3678700</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5256</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>REACH</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>5240100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5256.xlsx
+++ b/data/5256.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43329,6 +43329,41 @@
         <v>5240100</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5256</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>REACH</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>1722000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5256.xlsx
+++ b/data/5256.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43364,6 +43364,41 @@
         <v>1722000</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5256</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>REACH</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>4787400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5256.xlsx
+++ b/data/5256.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43399,6 +43399,76 @@
         <v>4787400</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5256</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>REACH</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>1847100</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5256</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>REACH</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>5739800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5256.xlsx
+++ b/data/5256.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43469,6 +43469,76 @@
         <v>5739800</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5256</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>REACH</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>6527400</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5256</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>REACH</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>2748800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5256.xlsx
+++ b/data/5256.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43539,6 +43539,41 @@
         <v>2748800</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5256</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>REACH</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>1132700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5256.xlsx
+++ b/data/5256.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43574,6 +43574,41 @@
         <v>1132700</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5256</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>REACH</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>1143100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5256.xlsx
+++ b/data/5256.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43609,6 +43609,41 @@
         <v>1143100</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5256</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>REACH</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>3251700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5256.xlsx
+++ b/data/5256.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43644,6 +43644,41 @@
         <v>3251700</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5256</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>REACH</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>15582700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5256.xlsx
+++ b/data/5256.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43679,6 +43679,76 @@
         <v>15582700</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>5256</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>REACH</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>18289700</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>5256</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>REACH</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>19623700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5256.xlsx
+++ b/data/5256.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43749,6 +43749,41 @@
         <v>19623700</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>5256</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>REACH</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>4716200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5256.xlsx
+++ b/data/5256.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43784,6 +43784,41 @@
         <v>4716200</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>5256</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>REACH</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>4620800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5256.xlsx
+++ b/data/5256.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1368"/>
+  <dimension ref="A1:I1369"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48264,6 +48264,41 @@
         <v>4620800</v>
       </c>
     </row>
+    <row r="1369">
+      <c r="A1369" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1369" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1369" t="inlineStr">
+        <is>
+          <t>5256</t>
+        </is>
+      </c>
+      <c r="D1369" t="inlineStr">
+        <is>
+          <t>REACH</t>
+        </is>
+      </c>
+      <c r="E1369" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1369" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1369" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1369" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1369" t="n">
+        <v>5525100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5256.xlsx
+++ b/data/5256.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1369"/>
+  <dimension ref="A1:I1370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48299,6 +48299,41 @@
         <v>5525100</v>
       </c>
     </row>
+    <row r="1370">
+      <c r="A1370" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1370" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1370" t="inlineStr">
+        <is>
+          <t>5256</t>
+        </is>
+      </c>
+      <c r="D1370" t="inlineStr">
+        <is>
+          <t>REACH</t>
+        </is>
+      </c>
+      <c r="E1370" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1370" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1370" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1370" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1370" t="n">
+        <v>6309800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5256.xlsx
+++ b/data/5256.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1370"/>
+  <dimension ref="A1:I1371"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48334,6 +48334,41 @@
         <v>6309800</v>
       </c>
     </row>
+    <row r="1371">
+      <c r="A1371" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1371" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1371" t="inlineStr">
+        <is>
+          <t>5256</t>
+        </is>
+      </c>
+      <c r="D1371" t="inlineStr">
+        <is>
+          <t>REACH</t>
+        </is>
+      </c>
+      <c r="E1371" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1371" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G1371" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1371" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I1371" t="n">
+        <v>13046000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5256.xlsx
+++ b/data/5256.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1371"/>
+  <dimension ref="A1:I1372"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48369,6 +48369,41 @@
         <v>13046000</v>
       </c>
     </row>
+    <row r="1372">
+      <c r="A1372" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1372" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1372" t="inlineStr">
+        <is>
+          <t>5256</t>
+        </is>
+      </c>
+      <c r="D1372" t="inlineStr">
+        <is>
+          <t>REACH</t>
+        </is>
+      </c>
+      <c r="E1372" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F1372" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1372" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H1372" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I1372" t="n">
+        <v>10121500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5256.xlsx
+++ b/data/5256.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1372"/>
+  <dimension ref="A1:I1373"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48404,6 +48404,41 @@
         <v>10121500</v>
       </c>
     </row>
+    <row r="1373">
+      <c r="A1373" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1373" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1373" t="inlineStr">
+        <is>
+          <t>5256</t>
+        </is>
+      </c>
+      <c r="D1373" t="inlineStr">
+        <is>
+          <t>REACH</t>
+        </is>
+      </c>
+      <c r="E1373" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F1373" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1373" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1373" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I1373" t="n">
+        <v>19918400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5256.xlsx
+++ b/data/5256.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1373"/>
+  <dimension ref="A1:I1374"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48439,6 +48439,41 @@
         <v>19918400</v>
       </c>
     </row>
+    <row r="1374">
+      <c r="A1374" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1374" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1374" t="inlineStr">
+        <is>
+          <t>5256</t>
+        </is>
+      </c>
+      <c r="D1374" t="inlineStr">
+        <is>
+          <t>REACH</t>
+        </is>
+      </c>
+      <c r="E1374" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F1374" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G1374" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1374" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I1374" t="n">
+        <v>3012500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5256.xlsx
+++ b/data/5256.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1374"/>
+  <dimension ref="A1:I1375"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48474,6 +48474,41 @@
         <v>3012500</v>
       </c>
     </row>
+    <row r="1375">
+      <c r="A1375" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1375" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1375" t="inlineStr">
+        <is>
+          <t>5256</t>
+        </is>
+      </c>
+      <c r="D1375" t="inlineStr">
+        <is>
+          <t>REACH</t>
+        </is>
+      </c>
+      <c r="E1375" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F1375" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1375" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H1375" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I1375" t="n">
+        <v>7935600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5256.xlsx
+++ b/data/5256.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1375"/>
+  <dimension ref="A1:I1376"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48509,6 +48509,41 @@
         <v>7935600</v>
       </c>
     </row>
+    <row r="1376">
+      <c r="A1376" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1376" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1376" t="inlineStr">
+        <is>
+          <t>5256</t>
+        </is>
+      </c>
+      <c r="D1376" t="inlineStr">
+        <is>
+          <t>REACH</t>
+        </is>
+      </c>
+      <c r="E1376" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1376" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1376" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H1376" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1376" t="n">
+        <v>9727500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5256.xlsx
+++ b/data/5256.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1376"/>
+  <dimension ref="A1:I1377"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48544,6 +48544,41 @@
         <v>9727500</v>
       </c>
     </row>
+    <row r="1377">
+      <c r="A1377" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1377" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1377" t="inlineStr">
+        <is>
+          <t>5256</t>
+        </is>
+      </c>
+      <c r="D1377" t="inlineStr">
+        <is>
+          <t>REACH</t>
+        </is>
+      </c>
+      <c r="E1377" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F1377" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G1377" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H1377" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1377" t="n">
+        <v>21321500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5256.xlsx
+++ b/data/5256.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1377"/>
+  <dimension ref="A1:I1378"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48579,6 +48579,41 @@
         <v>21321500</v>
       </c>
     </row>
+    <row r="1378">
+      <c r="A1378" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1378" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1378" t="inlineStr">
+        <is>
+          <t>5256</t>
+        </is>
+      </c>
+      <c r="D1378" t="inlineStr">
+        <is>
+          <t>REACH</t>
+        </is>
+      </c>
+      <c r="E1378" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1378" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G1378" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1378" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1378" t="n">
+        <v>6981800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5256.xlsx
+++ b/data/5256.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1378"/>
+  <dimension ref="A1:I1379"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48614,6 +48614,41 @@
         <v>6981800</v>
       </c>
     </row>
+    <row r="1379">
+      <c r="A1379" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1379" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1379" t="inlineStr">
+        <is>
+          <t>5256</t>
+        </is>
+      </c>
+      <c r="D1379" t="inlineStr">
+        <is>
+          <t>REACH</t>
+        </is>
+      </c>
+      <c r="E1379" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1379" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1379" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1379" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I1379" t="n">
+        <v>40145300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5256.xlsx
+++ b/data/5256.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1379"/>
+  <dimension ref="A1:I1380"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48649,6 +48649,41 @@
         <v>40145300</v>
       </c>
     </row>
+    <row r="1380">
+      <c r="A1380" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1380" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1380" t="inlineStr">
+        <is>
+          <t>5256</t>
+        </is>
+      </c>
+      <c r="D1380" t="inlineStr">
+        <is>
+          <t>REACH</t>
+        </is>
+      </c>
+      <c r="E1380" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1380" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1380" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H1380" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I1380" t="n">
+        <v>1468800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5256.xlsx
+++ b/data/5256.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1380"/>
+  <dimension ref="A1:I1381"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48684,6 +48684,41 @@
         <v>1468800</v>
       </c>
     </row>
+    <row r="1381">
+      <c r="A1381" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1381" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1381" t="inlineStr">
+        <is>
+          <t>5256</t>
+        </is>
+      </c>
+      <c r="D1381" t="inlineStr">
+        <is>
+          <t>REACH</t>
+        </is>
+      </c>
+      <c r="E1381" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F1381" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1381" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H1381" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1381" t="n">
+        <v>26419400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5256.xlsx
+++ b/data/5256.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1381"/>
+  <dimension ref="A1:I1382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48719,6 +48719,41 @@
         <v>26419400</v>
       </c>
     </row>
+    <row r="1382">
+      <c r="A1382" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1382" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1382" t="inlineStr">
+        <is>
+          <t>5256</t>
+        </is>
+      </c>
+      <c r="D1382" t="inlineStr">
+        <is>
+          <t>REACH</t>
+        </is>
+      </c>
+      <c r="E1382" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1382" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1382" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H1382" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1382" t="n">
+        <v>56857900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5256.xlsx
+++ b/data/5256.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1382"/>
+  <dimension ref="A1:I1383"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48754,6 +48754,41 @@
         <v>56857900</v>
       </c>
     </row>
+    <row r="1383">
+      <c r="A1383" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1383" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1383" t="inlineStr">
+        <is>
+          <t>5256</t>
+        </is>
+      </c>
+      <c r="D1383" t="inlineStr">
+        <is>
+          <t>REACH</t>
+        </is>
+      </c>
+      <c r="E1383" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1383" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1383" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1383" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1383" t="n">
+        <v>61064700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5256.xlsx
+++ b/data/5256.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1383"/>
+  <dimension ref="A1:I1384"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48789,6 +48789,41 @@
         <v>61064700</v>
       </c>
     </row>
+    <row r="1384">
+      <c r="A1384" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B1384" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C1384" t="inlineStr">
+        <is>
+          <t>5256</t>
+        </is>
+      </c>
+      <c r="D1384" t="inlineStr">
+        <is>
+          <t>REACH</t>
+        </is>
+      </c>
+      <c r="E1384" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1384" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1384" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1384" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1384" t="n">
+        <v>45062600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5256.xlsx
+++ b/data/5256.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1384"/>
+  <dimension ref="A1:I1385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48824,6 +48824,41 @@
         <v>45062600</v>
       </c>
     </row>
+    <row r="1385">
+      <c r="A1385" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B1385" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C1385" t="inlineStr">
+        <is>
+          <t>5256</t>
+        </is>
+      </c>
+      <c r="D1385" t="inlineStr">
+        <is>
+          <t>REACH</t>
+        </is>
+      </c>
+      <c r="E1385" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1385" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1385" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1385" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1385" t="n">
+        <v>18636100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5256.xlsx
+++ b/data/5256.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1385"/>
+  <dimension ref="A1:I1386"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48859,6 +48859,41 @@
         <v>18636100</v>
       </c>
     </row>
+    <row r="1386">
+      <c r="A1386" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B1386" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C1386" t="inlineStr">
+        <is>
+          <t>5256</t>
+        </is>
+      </c>
+      <c r="D1386" t="inlineStr">
+        <is>
+          <t>REACH</t>
+        </is>
+      </c>
+      <c r="E1386" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1386" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1386" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1386" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1386" t="n">
+        <v>10184400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5256.xlsx
+++ b/data/5256.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1386"/>
+  <dimension ref="A1:I1387"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48894,6 +48894,41 @@
         <v>10184400</v>
       </c>
     </row>
+    <row r="1387">
+      <c r="A1387" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B1387" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C1387" t="inlineStr">
+        <is>
+          <t>5256</t>
+        </is>
+      </c>
+      <c r="D1387" t="inlineStr">
+        <is>
+          <t>REACH</t>
+        </is>
+      </c>
+      <c r="E1387" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1387" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1387" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1387" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1387" t="n">
+        <v>28527800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5256.xlsx
+++ b/data/5256.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1387"/>
+  <dimension ref="A1:I1388"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48929,6 +48929,41 @@
         <v>28527800</v>
       </c>
     </row>
+    <row r="1388">
+      <c r="A1388" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B1388" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C1388" t="inlineStr">
+        <is>
+          <t>5256</t>
+        </is>
+      </c>
+      <c r="D1388" t="inlineStr">
+        <is>
+          <t>REACH</t>
+        </is>
+      </c>
+      <c r="E1388" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1388" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1388" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1388" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1388" t="n">
+        <v>22891300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5256.xlsx
+++ b/data/5256.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1388"/>
+  <dimension ref="A1:I1389"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48964,6 +48964,41 @@
         <v>22891300</v>
       </c>
     </row>
+    <row r="1389">
+      <c r="A1389" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B1389" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C1389" t="inlineStr">
+        <is>
+          <t>5256</t>
+        </is>
+      </c>
+      <c r="D1389" t="inlineStr">
+        <is>
+          <t>REACH</t>
+        </is>
+      </c>
+      <c r="E1389" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1389" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1389" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1389" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1389" t="n">
+        <v>14106200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5256.xlsx
+++ b/data/5256.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1389"/>
+  <dimension ref="A1:I1390"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48999,6 +48999,41 @@
         <v>14106200</v>
       </c>
     </row>
+    <row r="1390">
+      <c r="A1390" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B1390" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C1390" t="inlineStr">
+        <is>
+          <t>5256</t>
+        </is>
+      </c>
+      <c r="D1390" t="inlineStr">
+        <is>
+          <t>REACH</t>
+        </is>
+      </c>
+      <c r="E1390" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1390" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1390" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1390" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1390" t="n">
+        <v>20742100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5256.xlsx
+++ b/data/5256.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1390"/>
+  <dimension ref="A1:I1391"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49034,6 +49034,41 @@
         <v>20742100</v>
       </c>
     </row>
+    <row r="1391">
+      <c r="A1391" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B1391" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C1391" t="inlineStr">
+        <is>
+          <t>5256</t>
+        </is>
+      </c>
+      <c r="D1391" t="inlineStr">
+        <is>
+          <t>REACH</t>
+        </is>
+      </c>
+      <c r="E1391" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1391" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1391" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1391" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1391" t="n">
+        <v>12701700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5256.xlsx
+++ b/data/5256.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1391"/>
+  <dimension ref="A1:I1392"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49069,6 +49069,41 @@
         <v>12701700</v>
       </c>
     </row>
+    <row r="1392">
+      <c r="A1392" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B1392" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C1392" t="inlineStr">
+        <is>
+          <t>5256</t>
+        </is>
+      </c>
+      <c r="D1392" t="inlineStr">
+        <is>
+          <t>REACH</t>
+        </is>
+      </c>
+      <c r="E1392" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1392" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1392" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1392" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1392" t="n">
+        <v>12312800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5256.xlsx
+++ b/data/5256.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1392"/>
+  <dimension ref="A1:I1393"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49104,6 +49104,41 @@
         <v>12312800</v>
       </c>
     </row>
+    <row r="1393">
+      <c r="A1393" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B1393" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C1393" t="inlineStr">
+        <is>
+          <t>5256</t>
+        </is>
+      </c>
+      <c r="D1393" t="inlineStr">
+        <is>
+          <t>REACH</t>
+        </is>
+      </c>
+      <c r="E1393" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1393" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1393" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1393" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1393" t="n">
+        <v>5193600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5256.xlsx
+++ b/data/5256.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1393"/>
+  <dimension ref="A1:I1395"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49139,6 +49139,76 @@
         <v>5193600</v>
       </c>
     </row>
+    <row r="1394">
+      <c r="A1394" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B1394" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C1394" t="inlineStr">
+        <is>
+          <t>5256</t>
+        </is>
+      </c>
+      <c r="D1394" t="inlineStr">
+        <is>
+          <t>REACH</t>
+        </is>
+      </c>
+      <c r="E1394" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1394" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1394" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1394" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1394" t="n">
+        <v>8157000</v>
+      </c>
+    </row>
+    <row r="1395">
+      <c r="A1395" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B1395" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C1395" t="inlineStr">
+        <is>
+          <t>7277</t>
+        </is>
+      </c>
+      <c r="D1395" t="inlineStr">
+        <is>
+          <t>DIALOG</t>
+        </is>
+      </c>
+      <c r="E1395" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="F1395" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="G1395" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="H1395" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I1395" t="n">
+        <v>10102400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5256.xlsx
+++ b/data/5256.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1395"/>
+  <dimension ref="A1:I1396"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49209,6 +49209,41 @@
         <v>10102400</v>
       </c>
     </row>
+    <row r="1396">
+      <c r="A1396" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B1396" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C1396" t="inlineStr">
+        <is>
+          <t>5256</t>
+        </is>
+      </c>
+      <c r="D1396" t="inlineStr">
+        <is>
+          <t>REACH</t>
+        </is>
+      </c>
+      <c r="E1396" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1396" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1396" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1396" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1396" t="n">
+        <v>7878800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5256.xlsx
+++ b/data/5256.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1396"/>
+  <dimension ref="A1:I1399"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49244,6 +49244,111 @@
         <v>7878800</v>
       </c>
     </row>
+    <row r="1397">
+      <c r="A1397" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B1397" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C1397" t="inlineStr">
+        <is>
+          <t>5256</t>
+        </is>
+      </c>
+      <c r="D1397" t="inlineStr">
+        <is>
+          <t>REACH</t>
+        </is>
+      </c>
+      <c r="E1397" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1397" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1397" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1397" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1397" t="n">
+        <v>7205600</v>
+      </c>
+    </row>
+    <row r="1398">
+      <c r="A1398" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B1398" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C1398" t="inlineStr">
+        <is>
+          <t>5256</t>
+        </is>
+      </c>
+      <c r="D1398" t="inlineStr">
+        <is>
+          <t>REACH</t>
+        </is>
+      </c>
+      <c r="E1398" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1398" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1398" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1398" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1398" t="n">
+        <v>5174500</v>
+      </c>
+    </row>
+    <row r="1399">
+      <c r="A1399" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B1399" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C1399" t="inlineStr">
+        <is>
+          <t>5256</t>
+        </is>
+      </c>
+      <c r="D1399" t="inlineStr">
+        <is>
+          <t>REACH</t>
+        </is>
+      </c>
+      <c r="E1399" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1399" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1399" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1399" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1399" t="n">
+        <v>3501000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5256.xlsx
+++ b/data/5256.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1399"/>
+  <dimension ref="A1:I1400"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49349,6 +49349,41 @@
         <v>3501000</v>
       </c>
     </row>
+    <row r="1400">
+      <c r="A1400" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B1400" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C1400" t="inlineStr">
+        <is>
+          <t>5256</t>
+        </is>
+      </c>
+      <c r="D1400" t="inlineStr">
+        <is>
+          <t>REACH</t>
+        </is>
+      </c>
+      <c r="E1400" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1400" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1400" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1400" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1400" t="n">
+        <v>4057400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5256.xlsx
+++ b/data/5256.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1400"/>
+  <dimension ref="A1:I1401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49384,6 +49384,41 @@
         <v>4057400</v>
       </c>
     </row>
+    <row r="1401">
+      <c r="A1401" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B1401" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C1401" t="inlineStr">
+        <is>
+          <t>5256</t>
+        </is>
+      </c>
+      <c r="D1401" t="inlineStr">
+        <is>
+          <t>REACH</t>
+        </is>
+      </c>
+      <c r="E1401" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1401" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1401" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1401" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1401" t="n">
+        <v>2097700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5256.xlsx
+++ b/data/5256.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1401"/>
+  <dimension ref="A1:I1404"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49419,6 +49419,111 @@
         <v>2097700</v>
       </c>
     </row>
+    <row r="1402">
+      <c r="A1402" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B1402" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C1402" t="inlineStr">
+        <is>
+          <t>5256</t>
+        </is>
+      </c>
+      <c r="D1402" t="inlineStr">
+        <is>
+          <t>REACH</t>
+        </is>
+      </c>
+      <c r="E1402" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1402" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1402" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1402" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1402" t="n">
+        <v>8584300</v>
+      </c>
+    </row>
+    <row r="1403">
+      <c r="A1403" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B1403" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C1403" t="inlineStr">
+        <is>
+          <t>5256</t>
+        </is>
+      </c>
+      <c r="D1403" t="inlineStr">
+        <is>
+          <t>REACH</t>
+        </is>
+      </c>
+      <c r="E1403" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1403" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1403" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1403" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1403" t="n">
+        <v>13919600</v>
+      </c>
+    </row>
+    <row r="1404">
+      <c r="A1404" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B1404" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C1404" t="inlineStr">
+        <is>
+          <t>5256</t>
+        </is>
+      </c>
+      <c r="D1404" t="inlineStr">
+        <is>
+          <t>REACH</t>
+        </is>
+      </c>
+      <c r="E1404" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1404" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1404" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1404" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1404" t="n">
+        <v>19131100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
